--- a/infraAuto/silt-template-teste.xlsx
+++ b/infraAuto/silt-template-teste.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A534759-FC49-4A9A-A95E-E763CE00DE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89850EC-EB14-45F4-92AA-2F19FF672CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
     <sheet name="ftp" sheetId="3" r:id="rId2"/>
     <sheet name="setor" sheetId="2" r:id="rId3"/>
-    <sheet name="tipo_recebimento" sheetId="4" r:id="rId4"/>
-    <sheet name="regiao_armazenagem" sheetId="5" r:id="rId5"/>
-    <sheet name="or" sheetId="7" r:id="rId6"/>
-    <sheet name="padrao_integracao" sheetId="10" r:id="rId7"/>
-    <sheet name="setor_padrao" sheetId="9" r:id="rId8"/>
-    <sheet name="tipo_pedido" sheetId="8" r:id="rId9"/>
+    <sheet name="regiao_armazenagem" sheetId="5" r:id="rId4"/>
+    <sheet name="or" sheetId="7" r:id="rId5"/>
+    <sheet name="padrao_integracao" sheetId="10" r:id="rId6"/>
+    <sheet name="setor_padrao" sheetId="9" r:id="rId7"/>
+    <sheet name="tipo_pedido" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="111">
   <si>
     <t>sim</t>
   </si>
@@ -97,15 +94,9 @@
     <t>impressao</t>
   </si>
   <si>
-    <t>CASA AMARELA</t>
-  </si>
-  <si>
     <t>inscricao_estadual</t>
   </si>
   <si>
-    <t>06333395</t>
-  </si>
-  <si>
     <t>armazem</t>
   </si>
   <si>
@@ -133,9 +124,6 @@
     <t>permite_mais_produto_pulmao</t>
   </si>
   <si>
-    <t>VTEX - FATURAMENTO</t>
-  </si>
-  <si>
     <t>DISPONIVEL</t>
   </si>
   <si>
@@ -145,9 +133,6 @@
     <t>Contribuinte ICMS</t>
   </si>
   <si>
-    <t>VTEX BRASIL</t>
-  </si>
-  <si>
     <t>importacao</t>
   </si>
   <si>
@@ -166,21 +151,12 @@
     <t>tipo_recebimento</t>
   </si>
   <si>
-    <t>Recebimento de Mercadorias</t>
-  </si>
-  <si>
-    <t>Operações Internas</t>
-  </si>
-  <si>
     <t>regiao_armazenagem</t>
   </si>
   <si>
     <t>tipo_armazenagem</t>
   </si>
   <si>
-    <t>SUNGLASS - FATURAMENTO</t>
-  </si>
-  <si>
     <t>PICKING</t>
   </si>
   <si>
@@ -208,9 +184,6 @@
     <t>descricao</t>
   </si>
   <si>
-    <t>VTEX-VENDA</t>
-  </si>
-  <si>
     <t>tipo_palete_completo</t>
   </si>
   <si>
@@ -226,38 +199,188 @@
     <t>quantidade_maxima_picking</t>
   </si>
   <si>
-    <t>1 - Pulmão Utilizado</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
-    <t>x6</t>
-  </si>
-  <si>
-    <t>07.046.881/1007-15</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Vtex/importacao233</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Vtex/bkp_importacao233</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Vtex/exportacao233</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Vtex/bkp_exportacao233</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Vtex/erro233</t>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>3M DO BRASIL</t>
+  </si>
+  <si>
+    <t>06807000</t>
+  </si>
+  <si>
+    <t>3M - FATURAMENTO</t>
+  </si>
+  <si>
+    <t>3M - RECEBIMENTO</t>
+  </si>
+  <si>
+    <t>3M - PEDIDOS CANCELADOS</t>
+  </si>
+  <si>
+    <t>3M - REVERSA</t>
+  </si>
+  <si>
+    <t>3M - INSUCESSO</t>
+  </si>
+  <si>
+    <t>3M - CHECKIN_VIRTUAL</t>
+  </si>
+  <si>
+    <t>3M - PERDAS / EXTRAVIO</t>
+  </si>
+  <si>
+    <t>3M - AVARIA-LOG</t>
+  </si>
+  <si>
+    <t>3M - AVARIA-REVERSA</t>
+  </si>
+  <si>
+    <t>3M - DESCARTE</t>
+  </si>
+  <si>
+    <t>3M - DEVOLUCAO</t>
+  </si>
+  <si>
+    <t>3M - AVARIA-FABRICA</t>
+  </si>
+  <si>
+    <t>INDISPONIVEL</t>
+  </si>
+  <si>
+    <t>PERDA</t>
+  </si>
+  <si>
+    <t>CANCELADOS</t>
+  </si>
+  <si>
+    <t>REVERSA</t>
+  </si>
+  <si>
+    <t>INSUCESSO</t>
+  </si>
+  <si>
+    <t>FALTA</t>
+  </si>
+  <si>
+    <t>AVARIA</t>
+  </si>
+  <si>
+    <t>DEVOLUCAO</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>NÃO</t>
+  </si>
+  <si>
+    <t>Tipo do Local</t>
+  </si>
+  <si>
+    <t>TODOS</t>
+  </si>
+  <si>
+    <t>PULMÃO</t>
+  </si>
+  <si>
+    <t>Perda</t>
+  </si>
+  <si>
+    <t>3M - PERDAS/EXTRAVIO</t>
+  </si>
+  <si>
+    <t>3M - AVARIAS</t>
+  </si>
+  <si>
+    <t>2 - Picking</t>
+  </si>
+  <si>
+    <t>3M-VENDA</t>
+  </si>
+  <si>
+    <t>3M - VENDA</t>
+  </si>
+  <si>
+    <t>Recebimento de Mercadorias;Operações Internas</t>
+  </si>
+  <si>
+    <t>setor</t>
+  </si>
+  <si>
+    <t>doca</t>
+  </si>
+  <si>
+    <t>bancada</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>DCR-SP - DOCAS</t>
+  </si>
+  <si>
+    <t>DCR-SP - BANCADAS</t>
+  </si>
+  <si>
+    <t>situacao_lote</t>
+  </si>
+  <si>
+    <t>estado_material</t>
+  </si>
+  <si>
+    <t>Liberado</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>ativo</t>
+  </si>
+  <si>
+    <t>aceita_qualquer_barra</t>
+  </si>
+  <si>
+    <t>percentual_capacidade</t>
+  </si>
+  <si>
+    <t>coleta_lote_industria</t>
+  </si>
+  <si>
+    <t>coletar_vencimento_lote</t>
+  </si>
+  <si>
+    <t>não</t>
+  </si>
+  <si>
+    <t>picking_dinamico</t>
+  </si>
+  <si>
+    <t>12.345.678/0001-06</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/3M/importacao3</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/3M/bkp_importacao3</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/3M/exportacao3</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/3M/bkp_exportacao3</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/3M/erro3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,13 +394,44 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -293,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -302,6 +456,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,13 +752,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
@@ -628,7 +796,7 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -661,27 +829,27 @@
         <v>16</v>
       </c>
       <c r="P1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1">
-        <v>15369</v>
+        <v>123456700161</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -692,15 +860,13 @@
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
+      <c r="I2" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="J2" s="1">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>1445</v>
+      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>0</v>
@@ -736,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11608A0C-ED28-44C7-82EA-52657FD99FDD}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,36 +917,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -791,81 +957,481 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893592CC-2E91-4B52-A146-14375A160B6C}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="25" style="7" customWidth="1"/>
+    <col min="11" max="11" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -874,44 +1440,74 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C8DA74-DE1A-4BBE-8759-4A15601696AC}">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F89F253-018E-4447-9CD1-3C2821A0ED52}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -919,46 +1515,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F89F253-018E-4447-9CD1-3C2821A0ED52}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8779620F-C964-462C-A02D-55EB64A35923}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,30 +1533,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1013,55 +1574,139 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5FCC70-238A-490B-822A-654A42DAFEAA}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2">
+        <v>84</v>
+      </c>
+      <c r="E2" s="7">
         <v>1000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6DC345-55C6-4DBA-9273-FD598C8F6056}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1071,47 +1716,55 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6DC345-55C6-4DBA-9273-FD598C8F6056}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A46474-CA4C-4954-897A-C0D2B1EE1C52}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A46474-CA4C-4954-897A-C0D2B1EE1C52}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/infraAuto/silt-template-teste.xlsx
+++ b/infraAuto/silt-template-teste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89850EC-EB14-45F4-92AA-2F19FF672CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D77D90-B85B-4880-BB9A-3A0222ABB457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
@@ -22,26 +22,17 @@
     <sheet name="setor_padrao" sheetId="9" r:id="rId7"/>
     <sheet name="tipo_pedido" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="113">
   <si>
     <t>sim</t>
   </si>
@@ -202,51 +193,9 @@
     <t>01</t>
   </si>
   <si>
-    <t>3M</t>
-  </si>
-  <si>
-    <t>3M DO BRASIL</t>
-  </si>
-  <si>
     <t>06807000</t>
   </si>
   <si>
-    <t>3M - FATURAMENTO</t>
-  </si>
-  <si>
-    <t>3M - RECEBIMENTO</t>
-  </si>
-  <si>
-    <t>3M - PEDIDOS CANCELADOS</t>
-  </si>
-  <si>
-    <t>3M - REVERSA</t>
-  </si>
-  <si>
-    <t>3M - INSUCESSO</t>
-  </si>
-  <si>
-    <t>3M - CHECKIN_VIRTUAL</t>
-  </si>
-  <si>
-    <t>3M - PERDAS / EXTRAVIO</t>
-  </si>
-  <si>
-    <t>3M - AVARIA-LOG</t>
-  </si>
-  <si>
-    <t>3M - AVARIA-REVERSA</t>
-  </si>
-  <si>
-    <t>3M - DESCARTE</t>
-  </si>
-  <si>
-    <t>3M - DEVOLUCAO</t>
-  </si>
-  <si>
-    <t>3M - AVARIA-FABRICA</t>
-  </si>
-  <si>
     <t>INDISPONIVEL</t>
   </si>
   <si>
@@ -289,21 +238,9 @@
     <t>Perda</t>
   </si>
   <si>
-    <t>3M - PERDAS/EXTRAVIO</t>
-  </si>
-  <si>
-    <t>3M - AVARIAS</t>
-  </si>
-  <si>
     <t>2 - Picking</t>
   </si>
   <si>
-    <t>3M-VENDA</t>
-  </si>
-  <si>
-    <t>3M - VENDA</t>
-  </si>
-  <si>
     <t>Recebimento de Mercadorias;Operações Internas</t>
   </si>
   <si>
@@ -358,29 +295,89 @@
     <t>picking_dinamico</t>
   </si>
   <si>
-    <t>12.345.678/0001-06</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/3M/importacao3</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/3M/bkp_importacao3</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/3M/exportacao3</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/3M/bkp_exportacao3</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/3M/erro3</t>
+    <t>KARSTEN S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KARSTEN </t>
+  </si>
+  <si>
+    <t>82.640.558/0018-44</t>
+  </si>
+  <si>
+    <t>IFC Extrema I</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Karsten/importacao</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Karsten/bkp_importacao</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Karsten/exportacao</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Karsten/erro</t>
+  </si>
+  <si>
+    <t>KARSTEN</t>
+  </si>
+  <si>
+    <t>KARSTEN - FATURAMENTO</t>
+  </si>
+  <si>
+    <t>KARSTEN - RECEBIMENTO</t>
+  </si>
+  <si>
+    <t>KARSTEN - PEDIDOS CANCELADOS</t>
+  </si>
+  <si>
+    <t>KARSTEN - REVERSA</t>
+  </si>
+  <si>
+    <t>KARSTEN - INSUCESSO</t>
+  </si>
+  <si>
+    <t>KARSTEN - CHECKIN_VIRTUAL</t>
+  </si>
+  <si>
+    <t>KARSTEN - PERDAS / EXTRAVIO</t>
+  </si>
+  <si>
+    <t>KARSTEN - AVARIA-LOG</t>
+  </si>
+  <si>
+    <t>KARSTEN - AVARIA-REVERSA</t>
+  </si>
+  <si>
+    <t>KARSTEN - AVARIA-FABRICA</t>
+  </si>
+  <si>
+    <t>KARSTEN - DESCARTE</t>
+  </si>
+  <si>
+    <t>KARSTEN - DEVOLUCAO</t>
+  </si>
+  <si>
+    <t>KARSTEN - PERDAS/EXTRAVIO</t>
+  </si>
+  <si>
+    <t>KARSTEN - AVARIAS</t>
+  </si>
+  <si>
+    <t>KARSTEN-VENDA</t>
+  </si>
+  <si>
+    <t>KARSTEN - VENDA</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Karsten/bkp_exportacao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,8 +404,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,12 +431,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -447,7 +445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -465,14 +463,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{8851A966-585F-46CD-96AD-A8C8A497232E}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -753,49 +757,29 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" customWidth="1"/>
-    <col min="17" max="17" width="26.140625" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" customWidth="1"/>
-    <col min="19" max="19" width="24.42578125" customWidth="1"/>
-    <col min="20" max="20" width="16" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" customWidth="1"/>
-    <col min="22" max="23" width="30" customWidth="1"/>
-    <col min="24" max="24" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="17" max="17" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -807,13 +791,13 @@
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -828,28 +812,28 @@
       <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>105</v>
+      <c r="A2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1">
-        <v>123456700161</v>
+      <c r="E2" s="10">
+        <v>46311690063</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -861,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J2" s="1">
         <v>1445</v>
@@ -880,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>0</v>
@@ -899,11 +883,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11608A0C-ED28-44C7-82EA-52657FD99FDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,19 +918,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -956,11 +940,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893592CC-2E91-4B52-A146-14375A160B6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,10 +988,10 @@
         <v>22</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>35</v>
@@ -1015,7 +999,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -1027,30 +1011,30 @@
         <v>28</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1062,30 +1046,30 @@
         <v>28</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>
@@ -1094,343 +1078,343 @@
         <v>20</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="H8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1440,11 +1424,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F89F253-018E-4447-9CD1-3C2821A0ED52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,7 +1447,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>38</v>
@@ -1471,42 +1455,42 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1515,11 +1499,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8779620F-C964-462C-A02D-55EB64A35923}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,11 +1559,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5FCC70-238A-490B-822A-654A42DAFEAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,36 +1598,36 @@
         <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>104</v>
+        <v>80</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="I1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="J1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="K1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E2" s="7">
         <v>1000</v>
@@ -1661,10 +1645,10 @@
         <v>100</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1674,11 +1658,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6DC345-55C6-4DBA-9273-FD598C8F6056}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,24 +1673,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1716,11 +1700,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A46474-CA4C-4954-897A-C0D2B1EE1C52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,30 +1725,30 @@
         <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
